--- a/medicine/Mort/Cimetière_principal_de_Karlsruhe/Cimetière_principal_de_Karlsruhe.xlsx
+++ b/medicine/Mort/Cimetière_principal_de_Karlsruhe/Cimetière_principal_de_Karlsruhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_principal_de_Karlsruhe</t>
+          <t>Cimetière_principal_de_Karlsruhe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière principal de Karlsruhe (allemand : Hauptfriedhof Karlsruhe) est l'un des cimetières paysagers les plus anciens d'Allemagne. Il a ouvert en 1873 à Karlsruhe selon les plans de Josef Durm dans le quartier d'Oststadt à l'est de la ville. Il s'étend aujourd'hui sur 34 hectares avec 32 000 sépultures[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière principal de Karlsruhe (allemand : Hauptfriedhof Karlsruhe) est l'un des cimetières paysagers les plus anciens d'Allemagne. Il a ouvert en 1873 à Karlsruhe selon les plans de Josef Durm dans le quartier d'Oststadt à l'est de la ville. Il s'étend aujourd'hui sur 34 hectares avec 32 000 sépultures,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_principal_de_Karlsruhe</t>
+          <t>Cimetière_principal_de_Karlsruhe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des allées courbes plantées de platanes au lieu d'allées rectilignes marquent la nouvelle conception de cimetières paysagers[3]. Alors que les avenues principales sont bordées de monuments représentatifs, les sépultures plus simples sont cachées derrière des haies. Sur l'esplanade où se trouvait l'ancien crématorium, il y a aujourd'hui une chapelle pour l'inhumation, entourée d'une petite clôture.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des allées courbes plantées de platanes au lieu d'allées rectilignes marquent la nouvelle conception de cimetières paysagers. Alors que les avenues principales sont bordées de monuments représentatifs, les sépultures plus simples sont cachées derrière des haies. Sur l'esplanade où se trouvait l'ancien crématorium, il y a aujourd'hui une chapelle pour l'inhumation, entourée d'une petite clôture.
 Le cimetière est séparé par un mur du petit cimetière juif où l'on entre par une entrée à part. Il existe aussi un petit carré musulman depuis 1984.  
 			Carré musulman du cimetière de Carlsruhe.
 			Monument aux morts 1933-1945.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_principal_de_Karlsruhe</t>
+          <t>Cimetière_principal_de_Karlsruhe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du côté de la Haid-und-Neu-Straße, il y a une petite allée avec des bâtiments administratifs et utilitaires sur les bords, au bout de laquelle se trouve un portail d'entrée sur le territoire du cimetière[2]. Il est fait dans le style romain avec un arc de Triomphe. Derrière le portail se trouve une cour inspirée du Campo Santo de style Renaissance[4], avec des sépultures ouvragées. Il y a aussi une morgue et une chapelle catholique. L'ensemble est considéré comme le premier exemple de construction néo-renaissance et a été restauré au début du XXIe siècle. Le crématorium a été construit en 1903 par August Sturzenacker avec des bordures de grès rouge. C'est le premier de ce style architectural car auparavant la mode était au style orientaliste.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du côté de la Haid-und-Neu-Straße, il y a une petite allée avec des bâtiments administratifs et utilitaires sur les bords, au bout de laquelle se trouve un portail d'entrée sur le territoire du cimetière. Il est fait dans le style romain avec un arc de Triomphe. Derrière le portail se trouve une cour inspirée du Campo Santo de style Renaissance, avec des sépultures ouvragées. Il y a aussi une morgue et une chapelle catholique. L'ensemble est considéré comme le premier exemple de construction néo-renaissance et a été restauré au début du XXIe siècle. Le crématorium a été construit en 1903 par August Sturzenacker avec des bordures de grès rouge. C'est le premier de ce style architectural car auparavant la mode était au style orientaliste.
 L'ancienne salle d'attente de la petite gare de la ligne Karlsruhe-Hagsfeld construite contre le mur du cimetière en 1905-1906 dans le goût Jugendstil sert aujourd'hui de bureau d'information du cimetière.
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_principal_de_Karlsruhe</t>
+          <t>Cimetière_principal_de_Karlsruhe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Personnalités[5]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A–D
 Engelbert Arnold (1856–1911), ingénieur
@@ -652,9 +670,43 @@
 U–Z
 Hermann Volz (1847–1941), sculpteur
 Karl Weltzien (1813–1870), chimiste
-Ernst Würtenberger (1868–1934), peintre
-Sépultures d'honneur
-Ludwig Marum (1882–1934), juriste juif mort en camp de concentration,
+Ernst Würtenberger (1868–1934), peintre</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_principal_de_Karlsruhe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_principal_de_Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités[5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sépultures d'honneur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ludwig Marum (1882–1934), juriste juif mort en camp de concentration,
 Reinhold Frank (1896–1945), avocat exécuté pour le complot du 20 juillet 1944.</t>
         </is>
       </c>
